--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 4.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 4.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Student 2</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
